--- a/Data/Processed/04_Metadados_Behav-Analyse_Visual-Exp.xlsx
+++ b/Data/Processed/04_Metadados_Behav-Analyse_Visual-Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Mestrado\Projeto\Artigos\Experimento\BESocio\Article_behav-S.max_V03\Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E70614FD-96AA-4A21-9FF4-8B99DFD91F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36158CD7-B664-4CFC-B955-07DD7B22B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="10050" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,26 +612,26 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
